--- a/freezedried_data/dataToLoad.v3.xlsx
+++ b/freezedried_data/dataToLoad.v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Farmers" sheetId="1" state="visible" r:id="rId2"/>
@@ -309,7 +309,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -352,7 +352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -438,10 +438,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -459,23 +459,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/freezedried_data/dataToLoad.v3.xlsx
+++ b/freezedried_data/dataToLoad.v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Farmers" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Agent_id</t>
   </si>
@@ -79,7 +79,7 @@
     <t>maize seeds</t>
   </si>
   <si>
-    <t>durum wheat</t>
+    <t>wheat</t>
   </si>
   <si>
     <t>durum wheat seeds</t>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>animal food</t>
-  </si>
-  <si>
-    <t>tobbaco</t>
-  </si>
-  <si>
-    <t>tobbaco leaves</t>
   </si>
   <si>
     <t>plot_id</t>
@@ -440,8 +434,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3133,13 +3127,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8622448979592"/>
@@ -3198,17 +3192,6 @@
       </c>
       <c r="D4" s="5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -14770,13 +14753,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/freezedried_data/dataToLoad.v3.xlsx
+++ b/freezedried_data/dataToLoad.v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Farmers" sheetId="1" state="visible" r:id="rId2"/>
@@ -303,11 +303,11 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.70918367346939"/>
@@ -317,7 +317,8 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.5765306122449"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.7091836734694"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="1" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.14285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,7 +361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -374,7 +375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -388,7 +389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -402,7 +403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -3129,7 +3130,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/freezedried_data/dataToLoad.v3.xlsx
+++ b/freezedried_data/dataToLoad.v3.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Agent_id</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Farmer_MP</t>
+  </si>
+  <si>
+    <t>Farmer_Imm</t>
   </si>
   <si>
     <t>Farmer_Net</t>
@@ -304,7 +307,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -386,7 +389,7 @@
         <v>100000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,7 +403,7 @@
         <v>100000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,7 +417,7 @@
         <v>100000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -448,10 +451,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,7 +502,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="n">
         <v>0</v>
@@ -3145,13 +3148,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0"/>
     </row>
@@ -3160,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0"/>
     </row>
@@ -3172,13 +3175,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,13 +3189,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3224,7 +3227,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="n">
         <v>0</v>
@@ -6106,7 +6109,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="n">
         <v>0</v>
@@ -8988,7 +8991,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="n">
         <v>0</v>
@@ -11872,7 +11875,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="n">
         <v>1</v>
@@ -14754,13 +14757,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/freezedried_data/dataToLoad.v3.xlsx
+++ b/freezedried_data/dataToLoad.v3.xlsx
@@ -52,7 +52,7 @@
     <t>Farmer_MP</t>
   </si>
   <si>
-    <t>Farmer_Imm</t>
+    <t>Farmer_Immit</t>
   </si>
   <si>
     <t>Farmer_Net</t>
@@ -307,7 +307,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -315,7 +315,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.70918367346939"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.0765306122449"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.2857142857143"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.5765306122449"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.7091836734694"/>
@@ -6099,7 +6099,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="AE2" activeCellId="0" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6202,7 +6202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
@@ -6293,8 +6293,11 @@
       <c r="AD2" s="4" t="n">
         <v>0.885</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE2" s="4" t="n">
+        <v>0.885</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
@@ -6385,8 +6388,11 @@
       <c r="AD3" s="4" t="n">
         <v>0.85375</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE3" s="4" t="n">
+        <v>0.85375</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
@@ -6477,8 +6483,11 @@
       <c r="AD4" s="4" t="n">
         <v>0.8225</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE4" s="4" t="n">
+        <v>0.8225</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
@@ -6569,8 +6578,11 @@
       <c r="AD5" s="4" t="n">
         <v>0.79125</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE5" s="4" t="n">
+        <v>0.79125</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
@@ -6661,8 +6673,11 @@
       <c r="AD6" s="4" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
@@ -6753,8 +6768,11 @@
       <c r="AD7" s="4" t="n">
         <v>0.72875</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE7" s="4" t="n">
+        <v>0.72875</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
@@ -6845,8 +6863,11 @@
       <c r="AD8" s="4" t="n">
         <v>0.6975</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE8" s="4" t="n">
+        <v>0.6975</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
@@ -6937,8 +6958,11 @@
       <c r="AD9" s="4" t="n">
         <v>0.66625</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE9" s="4" t="n">
+        <v>0.66625</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
@@ -7029,8 +7053,11 @@
       <c r="AD10" s="4" t="n">
         <v>0.635</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE10" s="4" t="n">
+        <v>0.635</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
@@ -7121,8 +7148,11 @@
       <c r="AD11" s="4" t="n">
         <v>0.60375</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE11" s="4" t="n">
+        <v>0.60375</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
@@ -7213,8 +7243,11 @@
       <c r="AD12" s="4" t="n">
         <v>0.5725</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE12" s="4" t="n">
+        <v>0.5725</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
@@ -7305,8 +7338,11 @@
       <c r="AD13" s="4" t="n">
         <v>0.54125</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE13" s="4" t="n">
+        <v>0.54125</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
@@ -7397,8 +7433,11 @@
       <c r="AD14" s="4" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE14" s="4" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
@@ -7489,8 +7528,11 @@
       <c r="AD15" s="4" t="n">
         <v>0.47875</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE15" s="4" t="n">
+        <v>0.47875</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>14</v>
       </c>
@@ -7581,8 +7623,11 @@
       <c r="AD16" s="4" t="n">
         <v>0.4475</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE16" s="4" t="n">
+        <v>0.4475</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>15</v>
       </c>
@@ -7673,8 +7718,11 @@
       <c r="AD17" s="4" t="n">
         <v>0.47875</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE17" s="4" t="n">
+        <v>0.47875</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>16</v>
       </c>
@@ -7765,8 +7813,11 @@
       <c r="AD18" s="4" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE18" s="4" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>17</v>
       </c>
@@ -7857,8 +7908,11 @@
       <c r="AD19" s="4" t="n">
         <v>0.54125</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE19" s="4" t="n">
+        <v>0.54125</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>18</v>
       </c>
@@ -7949,8 +8003,11 @@
       <c r="AD20" s="4" t="n">
         <v>0.5725</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE20" s="4" t="n">
+        <v>0.5725</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>19</v>
       </c>
@@ -8041,8 +8098,11 @@
       <c r="AD21" s="4" t="n">
         <v>0.60375</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE21" s="4" t="n">
+        <v>0.60375</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>20</v>
       </c>
@@ -8133,8 +8193,11 @@
       <c r="AD22" s="4" t="n">
         <v>0.635</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE22" s="4" t="n">
+        <v>0.635</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>21</v>
       </c>
@@ -8225,8 +8288,11 @@
       <c r="AD23" s="4" t="n">
         <v>0.66625</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE23" s="4" t="n">
+        <v>0.66625</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>22</v>
       </c>
@@ -8317,8 +8383,11 @@
       <c r="AD24" s="4" t="n">
         <v>0.6975</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE24" s="4" t="n">
+        <v>0.6975</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>23</v>
       </c>
@@ -8409,8 +8478,11 @@
       <c r="AD25" s="4" t="n">
         <v>0.72875</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE25" s="4" t="n">
+        <v>0.72875</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>24</v>
       </c>
@@ -8501,8 +8573,11 @@
       <c r="AD26" s="4" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE26" s="4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>25</v>
       </c>
@@ -8593,8 +8668,11 @@
       <c r="AD27" s="4" t="n">
         <v>0.79125</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE27" s="4" t="n">
+        <v>0.79125</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>26</v>
       </c>
@@ -8685,8 +8763,11 @@
       <c r="AD28" s="4" t="n">
         <v>0.8225</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE28" s="4" t="n">
+        <v>0.8225</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>27</v>
       </c>
@@ -8777,8 +8858,11 @@
       <c r="AD29" s="4" t="n">
         <v>0.85375</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE29" s="4" t="n">
+        <v>0.85375</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>28</v>
       </c>
@@ -8869,8 +8953,11 @@
       <c r="AD30" s="4" t="n">
         <v>0.885</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE30" s="4" t="n">
+        <v>0.885</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>29</v>
       </c>
@@ -8959,6 +9046,9 @@
         <v>0.885</v>
       </c>
       <c r="AD31" s="4" t="n">
+        <v>0.91625</v>
+      </c>
+      <c r="AE31" s="4" t="n">
         <v>0.91625</v>
       </c>
     </row>
@@ -8981,7 +9071,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="AE2" activeCellId="0" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9084,7 +9174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
@@ -9175,8 +9265,11 @@
       <c r="AD2" s="4" t="n">
         <v>0.0909090909090909</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE2" s="4" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
@@ -9267,8 +9360,11 @@
       <c r="AD3" s="4" t="n">
         <v>0.121212121212121</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE3" s="4" t="n">
+        <v>0.121212121212121</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
@@ -9359,8 +9455,11 @@
       <c r="AD4" s="4" t="n">
         <v>0.151515151515152</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE4" s="4" t="n">
+        <v>0.151515151515152</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
@@ -9451,8 +9550,11 @@
       <c r="AD5" s="4" t="n">
         <v>0.181818181818182</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE5" s="4" t="n">
+        <v>0.181818181818182</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
@@ -9543,8 +9645,11 @@
       <c r="AD6" s="4" t="n">
         <v>0.212121212121212</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE6" s="4" t="n">
+        <v>0.212121212121212</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
@@ -9635,8 +9740,11 @@
       <c r="AD7" s="4" t="n">
         <v>0.242424242424242</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE7" s="4" t="n">
+        <v>0.242424242424242</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
@@ -9727,8 +9835,11 @@
       <c r="AD8" s="4" t="n">
         <v>0.272727272727273</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE8" s="4" t="n">
+        <v>0.272727272727273</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
@@ -9819,8 +9930,11 @@
       <c r="AD9" s="4" t="n">
         <v>0.303030303030303</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE9" s="4" t="n">
+        <v>0.303030303030303</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
@@ -9911,8 +10025,11 @@
       <c r="AD10" s="4" t="n">
         <v>0.333333333333333</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE10" s="4" t="n">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
@@ -10003,8 +10120,11 @@
       <c r="AD11" s="4" t="n">
         <v>0.363636363636364</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE11" s="4" t="n">
+        <v>0.363636363636364</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
@@ -10095,8 +10215,11 @@
       <c r="AD12" s="4" t="n">
         <v>0.393939393939394</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE12" s="4" t="n">
+        <v>0.393939393939394</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
@@ -10187,8 +10310,11 @@
       <c r="AD13" s="4" t="n">
         <v>0.424242424242424</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE13" s="4" t="n">
+        <v>0.424242424242424</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
@@ -10279,8 +10405,11 @@
       <c r="AD14" s="4" t="n">
         <v>0.454545454545455</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE14" s="4" t="n">
+        <v>0.454545454545455</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
@@ -10371,8 +10500,11 @@
       <c r="AD15" s="4" t="n">
         <v>0.484848484848485</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE15" s="4" t="n">
+        <v>0.484848484848485</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>14</v>
       </c>
@@ -10463,8 +10595,11 @@
       <c r="AD16" s="4" t="n">
         <v>0.515151515151515</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE16" s="4" t="n">
+        <v>0.515151515151515</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>15</v>
       </c>
@@ -10555,8 +10690,11 @@
       <c r="AD17" s="4" t="n">
         <v>0.545454545454546</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE17" s="4" t="n">
+        <v>0.545454545454546</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>16</v>
       </c>
@@ -10647,8 +10785,11 @@
       <c r="AD18" s="4" t="n">
         <v>0.575757575757576</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE18" s="4" t="n">
+        <v>0.575757575757576</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>17</v>
       </c>
@@ -10739,8 +10880,11 @@
       <c r="AD19" s="4" t="n">
         <v>0.606060606060606</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE19" s="4" t="n">
+        <v>0.606060606060606</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>18</v>
       </c>
@@ -10831,8 +10975,11 @@
       <c r="AD20" s="4" t="n">
         <v>0.636363636363636</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE20" s="4" t="n">
+        <v>0.636363636363636</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>19</v>
       </c>
@@ -10923,8 +11070,11 @@
       <c r="AD21" s="4" t="n">
         <v>0.666666666666667</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE21" s="4" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>20</v>
       </c>
@@ -11015,8 +11165,11 @@
       <c r="AD22" s="4" t="n">
         <v>0.696969696969697</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE22" s="4" t="n">
+        <v>0.696969696969697</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>21</v>
       </c>
@@ -11107,8 +11260,11 @@
       <c r="AD23" s="4" t="n">
         <v>0.727272727272727</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE23" s="4" t="n">
+        <v>0.727272727272727</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>22</v>
       </c>
@@ -11199,8 +11355,11 @@
       <c r="AD24" s="4" t="n">
         <v>0.757575757575757</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE24" s="4" t="n">
+        <v>0.757575757575757</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>23</v>
       </c>
@@ -11291,8 +11450,11 @@
       <c r="AD25" s="4" t="n">
         <v>0.787878787878788</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE25" s="4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>24</v>
       </c>
@@ -11383,8 +11545,11 @@
       <c r="AD26" s="4" t="n">
         <v>0.818181818181818</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE26" s="4" t="n">
+        <v>0.818181818181818</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>25</v>
       </c>
@@ -11475,8 +11640,11 @@
       <c r="AD27" s="4" t="n">
         <v>0.848484848484848</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE27" s="4" t="n">
+        <v>0.848484848484848</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>26</v>
       </c>
@@ -11567,8 +11735,11 @@
       <c r="AD28" s="4" t="n">
         <v>0.878787878787879</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE28" s="4" t="n">
+        <v>0.878787878787879</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>27</v>
       </c>
@@ -11659,8 +11830,11 @@
       <c r="AD29" s="4" t="n">
         <v>0.909090909090909</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE29" s="4" t="n">
+        <v>0.909090909090909</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>28</v>
       </c>
@@ -11751,8 +11925,11 @@
       <c r="AD30" s="4" t="n">
         <v>0.939393939393939</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE30" s="4" t="n">
+        <v>0.939393939393939</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>29</v>
       </c>
@@ -11841,6 +12018,9 @@
         <v>0.96969696969697</v>
       </c>
       <c r="AD31" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="AE31" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
     </row>
@@ -11863,7 +12043,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="AG8" activeCellId="0" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11968,7 +12148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -12059,8 +12239,11 @@
       <c r="AD2" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE2" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -12151,8 +12334,11 @@
       <c r="AD3" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE3" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -12243,8 +12429,11 @@
       <c r="AD4" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE4" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -12335,8 +12524,11 @@
       <c r="AD5" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE5" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -12427,8 +12619,11 @@
       <c r="AD6" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE6" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -12519,8 +12714,11 @@
       <c r="AD7" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE7" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
@@ -12611,8 +12809,11 @@
       <c r="AD8" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE8" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
@@ -12703,8 +12904,11 @@
       <c r="AD9" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE9" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
@@ -12795,8 +12999,11 @@
       <c r="AD10" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE10" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
@@ -12887,8 +13094,11 @@
       <c r="AD11" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE11" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
@@ -12979,8 +13189,11 @@
       <c r="AD12" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE12" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
@@ -13071,8 +13284,11 @@
       <c r="AD13" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE13" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
@@ -13163,8 +13379,11 @@
       <c r="AD14" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE14" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
@@ -13255,8 +13474,11 @@
       <c r="AD15" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE15" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
@@ -13347,8 +13569,11 @@
       <c r="AD16" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE16" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
@@ -13439,8 +13664,11 @@
       <c r="AD17" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE17" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>17</v>
       </c>
@@ -13531,8 +13759,11 @@
       <c r="AD18" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE18" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>18</v>
       </c>
@@ -13623,8 +13854,11 @@
       <c r="AD19" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE19" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>19</v>
       </c>
@@ -13715,8 +13949,11 @@
       <c r="AD20" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE20" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>20</v>
       </c>
@@ -13807,8 +14044,11 @@
       <c r="AD21" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE21" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>21</v>
       </c>
@@ -13899,8 +14139,11 @@
       <c r="AD22" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE22" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>22</v>
       </c>
@@ -13991,8 +14234,11 @@
       <c r="AD23" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE23" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>23</v>
       </c>
@@ -14083,8 +14329,11 @@
       <c r="AD24" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE24" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>24</v>
       </c>
@@ -14175,8 +14424,11 @@
       <c r="AD25" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE25" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>25</v>
       </c>
@@ -14267,8 +14519,11 @@
       <c r="AD26" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE26" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>26</v>
       </c>
@@ -14359,8 +14614,11 @@
       <c r="AD27" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE27" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>27</v>
       </c>
@@ -14451,8 +14709,11 @@
       <c r="AD28" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE28" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>28</v>
       </c>
@@ -14543,8 +14804,11 @@
       <c r="AD29" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE29" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>29</v>
       </c>
@@ -14635,8 +14899,11 @@
       <c r="AD30" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE30" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>30</v>
       </c>
@@ -14725,6 +14992,9 @@
         <v>0.939393939393939</v>
       </c>
       <c r="AD31" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="AE31" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
     </row>

--- a/freezedried_data/dataToLoad.v3.xlsx
+++ b/freezedried_data/dataToLoad.v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Farmers" sheetId="1" state="visible" r:id="rId2"/>
@@ -306,8 +306,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="B32:AE32 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
+      <selection pane="topLeft" activeCell="N15" activeCellId="1" sqref="B32:AE32 N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -491,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32:AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3134,7 +3134,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B32:AE32 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3217,7 +3217,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R24" activeCellId="0" sqref="R24"/>
+      <selection pane="topLeft" activeCell="R24" activeCellId="1" sqref="B32:AE32 R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6096,10 +6096,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE2" activeCellId="0" sqref="AE2"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32:AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9049,6 +9049,98 @@
         <v>0.91625</v>
       </c>
       <c r="AE31" s="4" t="n">
+        <v>0.91625</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="4" t="n">
+        <v>0.91625</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>0.85375</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>0.8225</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>0.79125</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>0.72875</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>0.6975</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <v>0.66625</v>
+      </c>
+      <c r="K32" s="4" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="L32" s="4" t="n">
+        <v>0.60375</v>
+      </c>
+      <c r="M32" s="4" t="n">
+        <v>0.5725</v>
+      </c>
+      <c r="N32" s="4" t="n">
+        <v>0.54125</v>
+      </c>
+      <c r="O32" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="P32" s="4" t="n">
+        <v>0.47875</v>
+      </c>
+      <c r="Q32" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="R32" s="4" t="n">
+        <v>0.54125</v>
+      </c>
+      <c r="S32" s="4" t="n">
+        <v>0.5725</v>
+      </c>
+      <c r="T32" s="4" t="n">
+        <v>0.60375</v>
+      </c>
+      <c r="U32" s="4" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="V32" s="4" t="n">
+        <v>0.66625</v>
+      </c>
+      <c r="W32" s="4" t="n">
+        <v>0.6975</v>
+      </c>
+      <c r="X32" s="4" t="n">
+        <v>0.72875</v>
+      </c>
+      <c r="Y32" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Z32" s="4" t="n">
+        <v>0.79125</v>
+      </c>
+      <c r="AA32" s="4" t="n">
+        <v>0.8225</v>
+      </c>
+      <c r="AB32" s="4" t="n">
+        <v>0.85375</v>
+      </c>
+      <c r="AC32" s="4" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="AD32" s="4" t="n">
+        <v>0.91625</v>
+      </c>
+      <c r="AE32" s="4" t="n">
         <v>0.91625</v>
       </c>
     </row>
@@ -9068,10 +9160,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE2" activeCellId="0" sqref="AE2"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32:AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12021,6 +12113,98 @@
         <v>0.96969696969697</v>
       </c>
       <c r="AE31" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="K32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="L32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="M32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="N32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="O32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="P32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="Q32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="R32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="S32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="T32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="U32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="V32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="W32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="X32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="Y32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="Z32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="AA32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="AB32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="AC32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="AD32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="AE32" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
     </row>
@@ -12040,10 +12224,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG8" activeCellId="0" sqref="AG8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32:AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14995,6 +15179,98 @@
         <v>0.96969696969697</v>
       </c>
       <c r="AE31" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="4" t="n">
+        <v>0.121212121212121</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>0.151515151515152</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>0.181818181818182</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>0.212121212121212</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>0.242424242424242</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="K32" s="4" t="n">
+        <v>0.393939393939394</v>
+      </c>
+      <c r="L32" s="4" t="n">
+        <v>0.424242424242424</v>
+      </c>
+      <c r="M32" s="4" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="N32" s="4" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="O32" s="4" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="P32" s="4" t="n">
+        <v>0.545454545454546</v>
+      </c>
+      <c r="Q32" s="4" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="R32" s="4" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="S32" s="4" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="T32" s="4" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="U32" s="4" t="n">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="V32" s="4" t="n">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="W32" s="4" t="n">
+        <v>0.757575757575757</v>
+      </c>
+      <c r="X32" s="4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="Y32" s="4" t="n">
+        <v>0.818181818181818</v>
+      </c>
+      <c r="Z32" s="4" t="n">
+        <v>0.848484848484848</v>
+      </c>
+      <c r="AA32" s="4" t="n">
+        <v>0.878787878787879</v>
+      </c>
+      <c r="AB32" s="4" t="n">
+        <v>0.909090909090909</v>
+      </c>
+      <c r="AC32" s="4" t="n">
+        <v>0.939393939393939</v>
+      </c>
+      <c r="AD32" s="4" t="n">
+        <v>0.96969696969697</v>
+      </c>
+      <c r="AE32" s="4" t="n">
         <v>0.96969696969697</v>
       </c>
     </row>
@@ -15017,7 +15293,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="B32:AE32 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
